--- a/xlsx/country_comparison/global_policies_mean.xlsx
+++ b/xlsx/country_comparison/global_policies_mean.xlsx
@@ -47,7 +47,7 @@
     <t xml:space="preserve">Fight tax evasion by creating a global financial register to record ownership of all assets</t>
   </si>
   <si>
-    <t xml:space="preserve">A maximum wealth limit of $10 billion (US) / €100 million (EU)</t>
+    <t xml:space="preserve">A maximum wealth limit of $10 billion for each human</t>
   </si>
 </sst>
 </file>
@@ -404,19 +404,19 @@
         <v>6</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.238805970149254</v>
+        <v>0.211267605633803</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.258064516129032</v>
+        <v>-0.110497237569061</v>
       </c>
       <c r="D2" t="n">
-        <v>0.206896551724138</v>
+        <v>-0.00819672131147541</v>
       </c>
       <c r="E2" t="n">
-        <v>0.117647058823529</v>
+        <v>0.217391304347826</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.255813953488372</v>
+        <v>-0.125523012552301</v>
       </c>
     </row>
     <row r="3">
@@ -424,19 +424,19 @@
         <v>7</v>
       </c>
       <c r="B3" t="n">
-        <v>0.134328358208955</v>
+        <v>0.345070422535211</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>0.281767955801105</v>
       </c>
       <c r="D3" t="n">
-        <v>0.379310344827586</v>
+        <v>0.319672131147541</v>
       </c>
       <c r="E3" t="n">
-        <v>0.25</v>
+        <v>0.282608695652174</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0697674418604651</v>
+        <v>0.0604792696842906</v>
       </c>
     </row>
     <row r="4">
@@ -444,19 +444,19 @@
         <v>8</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.17910447761194</v>
+        <v>0.21830985915493</v>
       </c>
       <c r="C4" t="n">
-        <v>0.67741935483871</v>
+        <v>0.348066298342541</v>
       </c>
       <c r="D4" t="n">
-        <v>0.517241379310345</v>
+        <v>0.385245901639344</v>
       </c>
       <c r="E4" t="n">
-        <v>0.235294117647059</v>
+        <v>0.5</v>
       </c>
       <c r="F4" t="n">
-        <v>0.162790697674419</v>
+        <v>0.178014454165082</v>
       </c>
     </row>
     <row r="5">
@@ -464,19 +464,19 @@
         <v>9</v>
       </c>
       <c r="B5" t="n">
-        <v>0.417910447761194</v>
+        <v>0.605633802816901</v>
       </c>
       <c r="C5" t="n">
-        <v>0.32258064516129</v>
+        <v>0.585635359116022</v>
       </c>
       <c r="D5" t="n">
-        <v>0.931034482758621</v>
+        <v>0.614754098360656</v>
       </c>
       <c r="E5" t="n">
-        <v>0.529411764705882</v>
+        <v>0.565217391304348</v>
       </c>
       <c r="F5" t="n">
-        <v>0.13953488372093</v>
+        <v>0.193609737542792</v>
       </c>
     </row>
     <row r="6">
@@ -484,19 +484,19 @@
         <v>10</v>
       </c>
       <c r="B6" t="n">
-        <v>0.91044776119403</v>
+        <v>0.802816901408451</v>
       </c>
       <c r="C6" t="n">
-        <v>1.03225806451613</v>
+        <v>0.674033149171271</v>
       </c>
       <c r="D6" t="n">
-        <v>1.06896551724138</v>
+        <v>0.89344262295082</v>
       </c>
       <c r="E6" t="n">
-        <v>0.852941176470588</v>
+        <v>0.58695652173913</v>
       </c>
       <c r="F6" t="n">
-        <v>0.162790697674419</v>
+        <v>0.182959300114112</v>
       </c>
     </row>
     <row r="7">
@@ -504,19 +504,19 @@
         <v>11</v>
       </c>
       <c r="B7" t="n">
-        <v>0.26865671641791</v>
+        <v>0.232394366197183</v>
       </c>
       <c r="C7" t="n">
-        <v>0.193548387096774</v>
+        <v>0.116022099447514</v>
       </c>
       <c r="D7" t="n">
-        <v>0.275862068965517</v>
+        <v>0.10655737704918</v>
       </c>
       <c r="E7" t="n">
-        <v>0.397058823529412</v>
+        <v>0.260869565217391</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.36046511627907</v>
+        <v>-0.111449220235831</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/global_policies_mean.xlsx
+++ b/xlsx/country_comparison/global_policies_mean.xlsx
@@ -404,19 +404,19 @@
         <v>6</v>
       </c>
       <c r="B2" t="n">
-        <v>0.211267605633803</v>
+        <v>0.0596774193548387</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.110497237569061</v>
+        <v>-0.151915455746367</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.00819672131147541</v>
+        <v>0.204419889502762</v>
       </c>
       <c r="E2" t="n">
-        <v>0.217391304347826</v>
+        <v>0.125776397515528</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.125523012552301</v>
+        <v>-0.121831252364737</v>
       </c>
     </row>
     <row r="3">
@@ -424,19 +424,19 @@
         <v>7</v>
       </c>
       <c r="B3" t="n">
-        <v>0.345070422535211</v>
+        <v>0.246774193548387</v>
       </c>
       <c r="C3" t="n">
-        <v>0.281767955801105</v>
+        <v>0.264200792602378</v>
       </c>
       <c r="D3" t="n">
-        <v>0.319672131147541</v>
+        <v>0.558011049723757</v>
       </c>
       <c r="E3" t="n">
-        <v>0.282608695652174</v>
+        <v>0.301242236024845</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0604792696842906</v>
+        <v>0.0620506999621642</v>
       </c>
     </row>
     <row r="4">
@@ -444,19 +444,19 @@
         <v>8</v>
       </c>
       <c r="B4" t="n">
-        <v>0.21830985915493</v>
+        <v>0.154838709677419</v>
       </c>
       <c r="C4" t="n">
-        <v>0.348066298342541</v>
+        <v>0.408190224570674</v>
       </c>
       <c r="D4" t="n">
-        <v>0.385245901639344</v>
+        <v>0.548802946593002</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5</v>
+        <v>0.607142857142857</v>
       </c>
       <c r="F4" t="n">
-        <v>0.178014454165082</v>
+        <v>0.178584941354521</v>
       </c>
     </row>
     <row r="5">
@@ -464,19 +464,19 @@
         <v>9</v>
       </c>
       <c r="B5" t="n">
-        <v>0.605633802816901</v>
+        <v>0.479032258064516</v>
       </c>
       <c r="C5" t="n">
-        <v>0.585635359116022</v>
+        <v>0.513870541611625</v>
       </c>
       <c r="D5" t="n">
-        <v>0.614754098360656</v>
+        <v>0.710865561694291</v>
       </c>
       <c r="E5" t="n">
-        <v>0.565217391304348</v>
+        <v>0.515527950310559</v>
       </c>
       <c r="F5" t="n">
-        <v>0.193609737542792</v>
+        <v>0.195611048051457</v>
       </c>
     </row>
     <row r="6">
@@ -484,19 +484,19 @@
         <v>10</v>
       </c>
       <c r="B6" t="n">
-        <v>0.802816901408451</v>
+        <v>1.00806451612903</v>
       </c>
       <c r="C6" t="n">
-        <v>0.674033149171271</v>
+        <v>0.895640686922061</v>
       </c>
       <c r="D6" t="n">
-        <v>0.89344262295082</v>
+        <v>1.11786372007366</v>
       </c>
       <c r="E6" t="n">
-        <v>0.58695652173913</v>
+        <v>0.992236024844721</v>
       </c>
       <c r="F6" t="n">
-        <v>0.182959300114112</v>
+        <v>0.184638668180098</v>
       </c>
     </row>
     <row r="7">
@@ -504,19 +504,19 @@
         <v>11</v>
       </c>
       <c r="B7" t="n">
-        <v>0.232394366197183</v>
+        <v>0.141935483870968</v>
       </c>
       <c r="C7" t="n">
-        <v>0.116022099447514</v>
+        <v>0.235138705416116</v>
       </c>
       <c r="D7" t="n">
-        <v>0.10655737704918</v>
+        <v>0.270718232044199</v>
       </c>
       <c r="E7" t="n">
-        <v>0.260869565217391</v>
+        <v>0.411490683229814</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.111449220235831</v>
+        <v>-0.11312902005297</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/global_policies_mean.xlsx
+++ b/xlsx/country_comparison/global_policies_mean.xlsx
@@ -12,11 +12,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t xml:space="preserve"/>
   </si>
   <si>
+    <t xml:space="preserve">United States</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Europe</t>
+  </si>
+  <si>
     <t xml:space="preserve">France</t>
   </si>
   <si>
@@ -29,9 +35,6 @@
     <t xml:space="preserve">United Kingdom</t>
   </si>
   <si>
-    <t xml:space="preserve">United States</t>
-  </si>
-  <si>
     <t xml:space="preserve">Cancellation of low-income countries' public debt</t>
   </si>
   <si>
@@ -47,7 +50,7 @@
     <t xml:space="preserve">Fight tax evasion by creating a global financial register to record ownership of all assets</t>
   </si>
   <si>
-    <t xml:space="preserve">A maximum wealth limit of $10 billion for each human</t>
+    <t xml:space="preserve">A maximum wealth limit of $10 billion (US) / €100 million (EU) for each human</t>
   </si>
 </sst>
 </file>
@@ -398,125 +401,146 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0596774193548387</v>
+        <v>-0.141181893050687</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.151915455746367</v>
+        <v>0.016467754233206</v>
       </c>
       <c r="D2" t="n">
-        <v>0.204419889502762</v>
+        <v>0.0773345455656912</v>
       </c>
       <c r="E2" t="n">
-        <v>0.125776397515528</v>
+        <v>-0.203481254116909</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.121831252364737</v>
+        <v>0.24234759867725</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.181435364736671</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3" t="n">
-        <v>0.246774193548387</v>
+        <v>0.0535338295355708</v>
       </c>
       <c r="C3" t="n">
-        <v>0.264200792602378</v>
+        <v>0.308351239437555</v>
       </c>
       <c r="D3" t="n">
-        <v>0.558011049723757</v>
+        <v>0.292542710114651</v>
       </c>
       <c r="E3" t="n">
-        <v>0.301242236024845</v>
+        <v>0.215337189894476</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0620506999621642</v>
+        <v>0.553679892685173</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.273033036585987</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4" t="n">
-        <v>0.154838709677419</v>
+        <v>0.16056394819881</v>
       </c>
       <c r="C4" t="n">
-        <v>0.408190224570674</v>
+        <v>0.403839912341103</v>
       </c>
       <c r="D4" t="n">
-        <v>0.548802946593002</v>
+        <v>0.159055145928737</v>
       </c>
       <c r="E4" t="n">
-        <v>0.607142857142857</v>
+        <v>0.408462254511136</v>
       </c>
       <c r="F4" t="n">
-        <v>0.178584941354521</v>
+        <v>0.578460553993432</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.565080567641465</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5" t="n">
-        <v>0.479032258064516</v>
+        <v>0.169489597231648</v>
       </c>
       <c r="C5" t="n">
-        <v>0.513870541611625</v>
+        <v>0.526714119953241</v>
       </c>
       <c r="D5" t="n">
-        <v>0.710865561694291</v>
+        <v>0.513735901814158</v>
       </c>
       <c r="E5" t="n">
-        <v>0.515527950310559</v>
+        <v>0.466582898978729</v>
       </c>
       <c r="F5" t="n">
-        <v>0.195611048051457</v>
+        <v>0.725533683352414</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.554987464229102</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6" t="n">
-        <v>1.00806451612903</v>
+        <v>0.158349370558089</v>
       </c>
       <c r="C6" t="n">
-        <v>0.895640686922061</v>
+        <v>0.976036084189087</v>
       </c>
       <c r="D6" t="n">
-        <v>1.11786372007366</v>
+        <v>1.03895535748853</v>
       </c>
       <c r="E6" t="n">
-        <v>0.992236024844721</v>
+        <v>0.912146758743074</v>
       </c>
       <c r="F6" t="n">
-        <v>0.184638668180098</v>
+        <v>1.1239714667965</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.858334271105753</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7" t="n">
-        <v>0.141935483870968</v>
+        <v>-0.126141020880914</v>
       </c>
       <c r="C7" t="n">
-        <v>0.235138705416116</v>
+        <v>0.268986089235481</v>
       </c>
       <c r="D7" t="n">
-        <v>0.270718232044199</v>
+        <v>0.183852024121922</v>
       </c>
       <c r="E7" t="n">
-        <v>0.411490683229814</v>
+        <v>0.252535168752598</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.11312902005297</v>
+        <v>0.360391405601737</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.419780925019407</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/global_policies_mean.xlsx
+++ b/xlsx/country_comparison/global_policies_mean.xlsx
@@ -410,22 +410,22 @@
         <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.141181893050687</v>
+        <v>-0.124678717076525</v>
       </c>
       <c r="C2" t="n">
-        <v>0.016467754233206</v>
+        <v>0.0350858021012577</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0773345455656912</v>
+        <v>0.0546617992186194</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.203481254116909</v>
+        <v>-0.173789111705596</v>
       </c>
       <c r="F2" t="n">
-        <v>0.24234759867725</v>
+        <v>0.247292690284371</v>
       </c>
       <c r="G2" t="n">
-        <v>0.181435364736671</v>
+        <v>0.177094070744044</v>
       </c>
     </row>
     <row r="3">
@@ -433,22 +433,22 @@
         <v>8</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0535338295355708</v>
+        <v>0.077908126413563</v>
       </c>
       <c r="C3" t="n">
-        <v>0.308351239437555</v>
+        <v>0.33350215057838</v>
       </c>
       <c r="D3" t="n">
-        <v>0.292542710114651</v>
+        <v>0.269289806363896</v>
       </c>
       <c r="E3" t="n">
-        <v>0.215337189894476</v>
+        <v>0.268544708743813</v>
       </c>
       <c r="F3" t="n">
-        <v>0.553679892685173</v>
+        <v>0.573608611917946</v>
       </c>
       <c r="G3" t="n">
-        <v>0.273033036585987</v>
+        <v>0.333414831873513</v>
       </c>
     </row>
     <row r="4">
@@ -456,22 +456,22 @@
         <v>9</v>
       </c>
       <c r="B4" t="n">
-        <v>0.16056394819881</v>
+        <v>0.168351939001038</v>
       </c>
       <c r="C4" t="n">
-        <v>0.403839912341103</v>
+        <v>0.413460663983791</v>
       </c>
       <c r="D4" t="n">
-        <v>0.159055145928737</v>
+        <v>0.132345777475132</v>
       </c>
       <c r="E4" t="n">
-        <v>0.408462254511136</v>
+        <v>0.4241405945309</v>
       </c>
       <c r="F4" t="n">
-        <v>0.578460553993432</v>
+        <v>0.584733499215059</v>
       </c>
       <c r="G4" t="n">
-        <v>0.565080567641465</v>
+        <v>0.559491437238886</v>
       </c>
     </row>
     <row r="5">
@@ -479,22 +479,22 @@
         <v>10</v>
       </c>
       <c r="B5" t="n">
-        <v>0.169489597231648</v>
+        <v>0.190457049885201</v>
       </c>
       <c r="C5" t="n">
-        <v>0.526714119953241</v>
+        <v>0.544460213935197</v>
       </c>
       <c r="D5" t="n">
-        <v>0.513735901814158</v>
+        <v>0.484490560893033</v>
       </c>
       <c r="E5" t="n">
-        <v>0.466582898978729</v>
+        <v>0.512302095010821</v>
       </c>
       <c r="F5" t="n">
-        <v>0.725533683352414</v>
+        <v>0.72463371184487</v>
       </c>
       <c r="G5" t="n">
-        <v>0.554987464229102</v>
+        <v>0.568910189937819</v>
       </c>
     </row>
     <row r="6">
@@ -502,22 +502,22 @@
         <v>11</v>
       </c>
       <c r="B6" t="n">
-        <v>0.158349370558089</v>
+        <v>0.179060362908465</v>
       </c>
       <c r="C6" t="n">
-        <v>0.976036084189087</v>
+        <v>0.970383337635537</v>
       </c>
       <c r="D6" t="n">
-        <v>1.03895535748853</v>
+        <v>1.00648803439778</v>
       </c>
       <c r="E6" t="n">
-        <v>0.912146758743074</v>
+        <v>0.960358194295615</v>
       </c>
       <c r="F6" t="n">
-        <v>1.1239714667965</v>
+        <v>1.11313224155618</v>
       </c>
       <c r="G6" t="n">
-        <v>0.858334271105753</v>
+        <v>0.860330239216708</v>
       </c>
     </row>
     <row r="7">
@@ -525,22 +525,22 @@
         <v>12</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.126141020880914</v>
+        <v>-0.118683922433153</v>
       </c>
       <c r="C7" t="n">
-        <v>0.268986089235481</v>
+        <v>0.276163819652425</v>
       </c>
       <c r="D7" t="n">
-        <v>0.183852024121922</v>
+        <v>0.158109346990052</v>
       </c>
       <c r="E7" t="n">
-        <v>0.252535168752598</v>
+        <v>0.277071968555084</v>
       </c>
       <c r="F7" t="n">
-        <v>0.360391405601737</v>
+        <v>0.385607446181505</v>
       </c>
       <c r="G7" t="n">
-        <v>0.419780925019407</v>
+        <v>0.404878954955889</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/global_policies_mean.xlsx
+++ b/xlsx/country_comparison/global_policies_mean.xlsx
@@ -38,19 +38,23 @@
     <t xml:space="preserve">Cancellation of low-income countries' public debt</t>
   </si>
   <si>
-    <t xml:space="preserve">Democratise international institutions (UN, IMF) by making a country's voting right proportional to its population</t>
+    <t xml:space="preserve">Democratise international institutions (UN, IMF) by making
+a country's voting right proportional to its population</t>
   </si>
   <si>
     <t xml:space="preserve">Removing tariffs on imports from low-income countries</t>
   </si>
   <si>
-    <t xml:space="preserve">A minimum wage in all countries at 50% of local median wage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fight tax evasion by creating a global financial register to record ownership of all assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A maximum wealth limit of $10 billion (US) / €100 million (EU) for each human</t>
+    <t xml:space="preserve">A minimum wage in all countries
+at 50% of local median wage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fight tax evasion by creating a global financial
+register to record ownership of all assets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A maximum wealth limit of $10 billion
+(US) / €100 million (Eu) for each human</t>
   </si>
 </sst>
 </file>
@@ -410,22 +414,22 @@
         <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.124678717076525</v>
+        <v>-0.12441159299716</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0350858021012577</v>
+        <v>0.0349922531460255</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0546617992186194</v>
+        <v>0.0544427496703824</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.173789111705596</v>
+        <v>-0.173798169716794</v>
       </c>
       <c r="F2" t="n">
-        <v>0.247292690284371</v>
+        <v>0.244916356322247</v>
       </c>
       <c r="G2" t="n">
-        <v>0.177094070744044</v>
+        <v>0.177060335998386</v>
       </c>
     </row>
     <row r="3">
@@ -433,22 +437,22 @@
         <v>8</v>
       </c>
       <c r="B3" t="n">
-        <v>0.077908126413563</v>
+        <v>0.0781277396872659</v>
       </c>
       <c r="C3" t="n">
-        <v>0.33350215057838</v>
+        <v>0.329411627503595</v>
       </c>
       <c r="D3" t="n">
-        <v>0.269289806363896</v>
+        <v>0.269203984523153</v>
       </c>
       <c r="E3" t="n">
-        <v>0.268544708743813</v>
+        <v>0.268538387600695</v>
       </c>
       <c r="F3" t="n">
-        <v>0.573608611917946</v>
+        <v>0.569881936141403</v>
       </c>
       <c r="G3" t="n">
-        <v>0.333414831873513</v>
+        <v>0.333381933560885</v>
       </c>
     </row>
     <row r="4">
@@ -456,22 +460,22 @@
         <v>9</v>
       </c>
       <c r="B4" t="n">
-        <v>0.168351939001038</v>
+        <v>0.168477401346791</v>
       </c>
       <c r="C4" t="n">
-        <v>0.413460663983791</v>
+        <v>0.412586129907337</v>
       </c>
       <c r="D4" t="n">
-        <v>0.132345777475132</v>
+        <v>0.132339476178013</v>
       </c>
       <c r="E4" t="n">
-        <v>0.4241405945309</v>
+        <v>0.424102525140832</v>
       </c>
       <c r="F4" t="n">
-        <v>0.584733499215059</v>
+        <v>0.550996480141014</v>
       </c>
       <c r="G4" t="n">
-        <v>0.559491437238886</v>
+        <v>0.559488208697639</v>
       </c>
     </row>
     <row r="5">
@@ -479,22 +483,22 @@
         <v>10</v>
       </c>
       <c r="B5" t="n">
-        <v>0.190457049885201</v>
+        <v>0.190580455975378</v>
       </c>
       <c r="C5" t="n">
-        <v>0.544460213935197</v>
+        <v>0.540458015688794</v>
       </c>
       <c r="D5" t="n">
-        <v>0.484490560893033</v>
+        <v>0.484262773452059</v>
       </c>
       <c r="E5" t="n">
-        <v>0.512302095010821</v>
+        <v>0.512237503597023</v>
       </c>
       <c r="F5" t="n">
-        <v>0.72463371184487</v>
+        <v>0.706061662357771</v>
       </c>
       <c r="G5" t="n">
-        <v>0.568910189937819</v>
+        <v>0.56887293464701</v>
       </c>
     </row>
     <row r="6">
@@ -502,22 +506,22 @@
         <v>11</v>
       </c>
       <c r="B6" t="n">
-        <v>0.179060362908465</v>
+        <v>0.179302456455172</v>
       </c>
       <c r="C6" t="n">
-        <v>0.970383337635537</v>
+        <v>0.967744493172847</v>
       </c>
       <c r="D6" t="n">
-        <v>1.00648803439778</v>
+        <v>1.00630794676568</v>
       </c>
       <c r="E6" t="n">
-        <v>0.960358194295615</v>
+        <v>0.960397158024986</v>
       </c>
       <c r="F6" t="n">
-        <v>1.11313224155618</v>
+        <v>1.09830906964386</v>
       </c>
       <c r="G6" t="n">
-        <v>0.860330239216708</v>
+        <v>0.860364720716399</v>
       </c>
     </row>
     <row r="7">
@@ -525,22 +529,22 @@
         <v>12</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.118683922433153</v>
+        <v>-0.118306561742397</v>
       </c>
       <c r="C7" t="n">
-        <v>0.276163819652425</v>
+        <v>0.269905385393051</v>
       </c>
       <c r="D7" t="n">
-        <v>0.158109346990052</v>
+        <v>0.157814312652819</v>
       </c>
       <c r="E7" t="n">
-        <v>0.277071968555084</v>
+        <v>0.276975152631472</v>
       </c>
       <c r="F7" t="n">
-        <v>0.385607446181505</v>
+        <v>0.329182214519461</v>
       </c>
       <c r="G7" t="n">
-        <v>0.404878954955889</v>
+        <v>0.40487061674618</v>
       </c>
     </row>
   </sheetData>
